--- a/assets/optim.xlsx
+++ b/assets/optim.xlsx
@@ -1,21 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yusen/Documents/Code/DAG/agents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yusen/Documents/Code/DAG/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{337106CF-25AF-EF40-899B-223F9340D16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D54D97B-5D22-B44B-8C41-1E5B18677C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16240" xr2:uid="{8117A931-1791-AA4E-96DB-4A6773CA7DC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$17</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$18:$A$26</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$F$17</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$F$18:$F$26</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$G$17</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$G$18:$G$26</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$17</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$18:$B$26</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$17</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$18:$C$26</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$17</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$18:$D$26</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$E$17</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$E$18:$E$26</definedName>
+    <definedName name="_xlchart.v2.14" hidden="1">Sheet1!$A$17</definedName>
+    <definedName name="_xlchart.v2.15" hidden="1">Sheet1!$A$18:$A$26</definedName>
+    <definedName name="_xlchart.v2.16" hidden="1">Sheet1!$B$17</definedName>
+    <definedName name="_xlchart.v2.17" hidden="1">Sheet1!$B$18:$B$26</definedName>
+    <definedName name="_xlchart.v2.18" hidden="1">Sheet1!$C$17</definedName>
+    <definedName name="_xlchart.v2.19" hidden="1">Sheet1!$C$18:$C$26</definedName>
+    <definedName name="_xlchart.v2.20" hidden="1">Sheet1!$D$17</definedName>
+    <definedName name="_xlchart.v2.21" hidden="1">Sheet1!$D$18:$D$26</definedName>
+    <definedName name="_xlchart.v2.22" hidden="1">Sheet1!$E$17</definedName>
+    <definedName name="_xlchart.v2.23" hidden="1">Sheet1!$E$18:$E$26</definedName>
+    <definedName name="_xlchart.v2.24" hidden="1">Sheet1!$F$17</definedName>
+    <definedName name="_xlchart.v2.25" hidden="1">Sheet1!$F$18:$F$26</definedName>
+    <definedName name="_xlchart.v2.26" hidden="1">Sheet1!$G$17</definedName>
+    <definedName name="_xlchart.v2.27" hidden="1">Sheet1!$G$18:$G$26</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +57,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,27 +65,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
-    <t>no</t>
+    <t>区块产生速率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>private value</t>
+    <t>不燃烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>trx fee by rl</t>
+    <t>最优</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>revenue by rl</t>
+    <t>a=100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>global optimal revenue</t>
+    <t>a=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>revenue gap</t>
+    <t>a=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>global optimal trx fee</t>
+    <t>a=0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -81,7 +120,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -112,17 +150,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -140,6 +175,3240 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>吞吐量</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>最优</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F29C-2B43-B0E4-3D7C91433ABE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>不燃烧</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>49.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.6666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>103.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>111.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>126.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>149.666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F29C-2B43-B0E4-3D7C91433ABE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a=100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F29C-2B43-B0E4-3D7C91433ABE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a=10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>291</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F29C-2B43-B0E4-3D7C91433ABE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a=1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>44.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>158.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>199.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>220.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>242.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F29C-2B43-B0E4-3D7C91433ABE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a=0.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>311</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F29C-2B43-B0E4-3D7C91433ABE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a=0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F29C-2B43-B0E4-3D7C91433ABE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1053372448"/>
+        <c:axId val="1054466896"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1053372448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1054466896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1054466896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1053372448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>社会福利</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>不燃烧</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$18:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>863535.33333333302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>896150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1108915</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1077224.66666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1207187.66666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1264192.33333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1346927</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1397996.66666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1484639.33333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D2D3-7140-868A-7E1B7C13C676}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a=100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$18:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$18:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>737916</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>912989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1126245</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1181239</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1386698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1363658</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1564775</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1582028</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1704767</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D2D3-7140-868A-7E1B7C13C676}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a=10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$18:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$18:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>595733</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>835144</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>995263</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1107025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1309857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1310130</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1521131</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1531765</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1707465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D2D3-7140-868A-7E1B7C13C676}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a=1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$18:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$18:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>478261</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>750781.66666666605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>903306.33333333302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1037122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1253516.66666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1231835.33333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1435960</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1491674.66666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1687917.33333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D2D3-7140-868A-7E1B7C13C676}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a=0.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$18:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$18:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>440219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>692479</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>853956</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1008220</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1196453</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1185339</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1492188</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1426654</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1674381</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D2D3-7140-868A-7E1B7C13C676}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a=0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$18:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$18:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>410283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>640475</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>837477</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>986125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1155617</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1164789</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1362603</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1367012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1643062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D2D3-7140-868A-7E1B7C13C676}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1049600464"/>
+        <c:axId val="1049602192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1049600464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1049602192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1049602192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1049600464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64A4D826-BEE3-81EA-A5F7-A47BAD42A96B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCEE1467-DF2B-2784-C487-FD49A11FCDB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -439,279 +3708,514 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BED25B-25E5-BA48-A734-4AE08080EEF0}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>8070</v>
-      </c>
-      <c r="C2">
-        <v>2306.1264999999999</v>
-      </c>
-      <c r="D2">
-        <v>1548.787</v>
-      </c>
-      <c r="E2">
-        <v>1490.569</v>
-      </c>
-      <c r="F2">
-        <v>1537.432</v>
-      </c>
-      <c r="G2" s="2">
-        <f>ABS(F2-E2)/F2*100%</f>
-        <v>3.0481348118160709E-2</v>
+      <c r="B2" s="1">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1">
+        <v>49.3333333333333</v>
+      </c>
+      <c r="D2" s="1">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44.3333333333333</v>
+      </c>
+      <c r="G2" s="1">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>3816</v>
-      </c>
-      <c r="C3">
-        <v>1090.49</v>
-      </c>
-      <c r="D3">
-        <v>732.36400000000003</v>
-      </c>
-      <c r="E3">
-        <v>1459.374</v>
-      </c>
-      <c r="F3">
-        <v>1511.617</v>
-      </c>
-      <c r="G3" s="3">
-        <f>ABS(F3-E3)/F3*100%</f>
-        <v>3.4561003217084711E-2</v>
+      <c r="B3" s="1">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1">
+        <v>62.3333333333333</v>
+      </c>
+      <c r="D3" s="1">
+        <v>88</v>
+      </c>
+      <c r="E3" s="1">
+        <v>91</v>
+      </c>
+      <c r="F3" s="1">
+        <v>90</v>
+      </c>
+      <c r="G3" s="1">
+        <v>90</v>
+      </c>
+      <c r="H3" s="1">
+        <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>7019</v>
-      </c>
-      <c r="C4">
-        <v>2005.789</v>
-      </c>
-      <c r="D4">
-        <v>1276.182</v>
-      </c>
-      <c r="E4">
-        <v>2249.5230000000001</v>
-      </c>
-      <c r="F4">
-        <v>2347.3939999999998</v>
-      </c>
-      <c r="G4" s="3">
-        <f>ABS(F4-E4)/F4*100%</f>
-        <v>4.1693469438875475E-2</v>
+      <c r="B4" s="1">
+        <v>150</v>
+      </c>
+      <c r="C4" s="1">
+        <v>75.6666666666666</v>
+      </c>
+      <c r="D4" s="1">
+        <v>119</v>
+      </c>
+      <c r="E4" s="1">
+        <v>127</v>
+      </c>
+      <c r="F4" s="1">
+        <v>127.666666666666</v>
+      </c>
+      <c r="G4" s="1">
+        <v>126</v>
+      </c>
+      <c r="H4" s="1">
+        <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>2123</v>
-      </c>
-      <c r="C5">
-        <v>606</v>
-      </c>
-      <c r="D5">
-        <v>536.11099999999999</v>
-      </c>
-      <c r="E5">
-        <v>295.63900000000001</v>
-      </c>
-      <c r="F5">
-        <v>296.87099999999998</v>
-      </c>
-      <c r="G5" s="3">
-        <f>ABS(F5-E5)/F5*100%</f>
-        <v>4.1499506519665818E-3</v>
+      <c r="B5" s="1">
+        <v>200</v>
+      </c>
+      <c r="C5" s="1">
+        <v>81.3333333333333</v>
+      </c>
+      <c r="D5" s="1">
+        <v>148</v>
+      </c>
+      <c r="E5" s="1">
+        <v>156</v>
+      </c>
+      <c r="F5" s="1">
+        <v>158.666666666666</v>
+      </c>
+      <c r="G5" s="1">
+        <v>163</v>
+      </c>
+      <c r="H5" s="1">
+        <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>910</v>
-      </c>
-      <c r="C6">
-        <v>260.06</v>
-      </c>
-      <c r="D6">
-        <v>275.75799999999998</v>
-      </c>
-      <c r="E6">
-        <v>171.018</v>
-      </c>
-      <c r="F6">
-        <v>171.25</v>
-      </c>
-      <c r="G6" s="3">
-        <f>ABS(F6-E6)/F6*100%</f>
-        <v>1.3547445255474412E-3</v>
+      <c r="B6" s="1">
+        <v>250</v>
+      </c>
+      <c r="C6" s="1">
+        <v>103.666666666666</v>
+      </c>
+      <c r="D6" s="1">
+        <v>182</v>
+      </c>
+      <c r="E6" s="1">
+        <v>192</v>
+      </c>
+      <c r="F6" s="1">
+        <v>199.666666666666</v>
+      </c>
+      <c r="G6" s="1">
+        <v>201</v>
+      </c>
+      <c r="H6" s="1">
+        <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>2827</v>
-      </c>
-      <c r="C7">
-        <v>807</v>
-      </c>
-      <c r="D7">
-        <v>685.33299999999997</v>
-      </c>
-      <c r="E7">
-        <v>407.53699999999998</v>
-      </c>
-      <c r="F7">
-        <v>410.53100000000001</v>
-      </c>
-      <c r="G7" s="3">
-        <f>ABS(F7-E7)/F7*100%</f>
-        <v>7.2929937081487829E-3</v>
+      <c r="B7" s="1">
+        <v>300</v>
+      </c>
+      <c r="C7" s="1">
+        <v>111.333333333333</v>
+      </c>
+      <c r="D7" s="1">
+        <v>195</v>
+      </c>
+      <c r="E7" s="1">
+        <v>215</v>
+      </c>
+      <c r="F7" s="1">
+        <v>220.333333333333</v>
+      </c>
+      <c r="G7" s="1">
+        <v>222</v>
+      </c>
+      <c r="H7" s="1">
+        <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>4217</v>
-      </c>
-      <c r="C8">
-        <v>1205.0809999999999</v>
-      </c>
-      <c r="D8">
-        <v>851.91899999999998</v>
-      </c>
-      <c r="E8">
-        <v>1265.123</v>
-      </c>
-      <c r="F8">
-        <v>1303.288</v>
-      </c>
-      <c r="G8" s="3">
-        <f>ABS(F8-E8)/F8*100%</f>
-        <v>2.9283627256600202E-2</v>
+      <c r="B8" s="1">
+        <v>350</v>
+      </c>
+      <c r="C8" s="1">
+        <v>126.666666666666</v>
+      </c>
+      <c r="D8" s="1">
+        <v>223</v>
+      </c>
+      <c r="E8" s="1">
+        <v>238</v>
+      </c>
+      <c r="F8" s="1">
+        <v>242.666666666666</v>
+      </c>
+      <c r="G8" s="1">
+        <v>249</v>
+      </c>
+      <c r="H8" s="1">
+        <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>800</v>
-      </c>
-      <c r="C9">
-        <v>228.63</v>
-      </c>
-      <c r="D9">
-        <v>266.66699999999997</v>
-      </c>
-      <c r="E9">
-        <v>69.253</v>
-      </c>
-      <c r="F9">
-        <v>70.241</v>
-      </c>
-      <c r="G9" s="3">
-        <f>ABS(F9-E9)/F9*100%</f>
-        <v>1.4065858971256097E-2</v>
+      <c r="B9" s="1">
+        <v>400</v>
+      </c>
+      <c r="C9" s="1">
+        <v>136</v>
+      </c>
+      <c r="D9" s="1">
+        <v>242</v>
+      </c>
+      <c r="E9" s="1">
+        <v>258</v>
+      </c>
+      <c r="F9" s="1">
+        <v>263</v>
+      </c>
+      <c r="G9" s="1">
+        <v>271</v>
+      </c>
+      <c r="H9" s="1">
+        <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>1365</v>
-      </c>
-      <c r="C10">
-        <v>390.08600000000001</v>
-      </c>
-      <c r="D10">
-        <v>399.84800000000001</v>
-      </c>
-      <c r="E10">
-        <v>155.64099999999999</v>
-      </c>
-      <c r="F10">
-        <v>155.642</v>
-      </c>
-      <c r="G10" s="2">
-        <f>ABS(F10-E10)/F10*100%</f>
-        <v>6.4250009637808235E-6</v>
+      <c r="B10" s="1">
+        <v>450</v>
+      </c>
+      <c r="C10" s="1">
+        <v>149.666666666666</v>
+      </c>
+      <c r="D10" s="1">
+        <v>264</v>
+      </c>
+      <c r="E10" s="1">
+        <v>291</v>
+      </c>
+      <c r="F10" s="1">
+        <v>303</v>
+      </c>
+      <c r="G10" s="1">
+        <v>311</v>
+      </c>
+      <c r="H10" s="1">
+        <v>314</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1713</v>
-      </c>
-      <c r="C11">
-        <v>489.53199999999998</v>
-      </c>
-      <c r="D11">
-        <v>467.18200000000002</v>
-      </c>
-      <c r="E11">
-        <v>213.547</v>
-      </c>
-      <c r="F11">
-        <v>213.70400000000001</v>
-      </c>
-      <c r="G11" s="3">
-        <f>ABS(F11-E11)/F11*100%</f>
-        <v>7.3466102646656446E-4</v>
+    <row r="11" spans="1:8">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>863535.33333333302</v>
+      </c>
+      <c r="C18" s="1">
+        <v>737916</v>
+      </c>
+      <c r="D18" s="1">
+        <v>595733</v>
+      </c>
+      <c r="E18" s="1">
+        <v>478261</v>
+      </c>
+      <c r="F18" s="1">
+        <v>440219</v>
+      </c>
+      <c r="G18" s="1">
+        <v>410283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>896150</v>
+      </c>
+      <c r="C19" s="1">
+        <v>912989</v>
+      </c>
+      <c r="D19" s="1">
+        <v>835144</v>
+      </c>
+      <c r="E19" s="1">
+        <v>750781.66666666605</v>
+      </c>
+      <c r="F19" s="1">
+        <v>692479</v>
+      </c>
+      <c r="G19" s="1">
+        <v>640475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1108915</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1126245</v>
+      </c>
+      <c r="D20" s="1">
+        <v>995263</v>
+      </c>
+      <c r="E20" s="1">
+        <v>903306.33333333302</v>
+      </c>
+      <c r="F20" s="1">
+        <v>853956</v>
+      </c>
+      <c r="G20" s="1">
+        <v>837477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1077224.66666666</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1181239</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1107025</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1037122</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1008220</v>
+      </c>
+      <c r="G21" s="1">
+        <v>986125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1207187.66666666</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1386698</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1309857</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1253516.66666666</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1196453</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1155617</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1264192.33333333</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1363658</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1310130</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1231835.33333333</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1185339</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1164789</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1346927</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1564775</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1521131</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1435960</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1492188</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1362603</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1397996.66666666</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1582028</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1531765</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1491674.66666666</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1426654</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1367012</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1484639.33333333</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1704767</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1707465</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1687917.33333333</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1674381</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1643062</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>